--- a/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
+++ b/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit Word\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario 1" sheetId="8" r:id="rId1"/>
     <sheet name="Szenario 2" sheetId="7" r:id="rId2"/>
     <sheet name="Szenario 3" sheetId="9" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -401,6 +402,1165 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Wachstumsrate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$B$2,Tabelle1!$B$7,Tabelle1!$B$12,Tabelle1!$B$17,Tabelle1!$B$22,Tabelle1!$B$27,Tabelle1!$B$32,Tabelle1!$B$37,Tabelle1!$B$42,Tabelle1!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$C$2:$C$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$C$2,Tabelle1!$C$7,Tabelle1!$C$12,Tabelle1!$C$17,Tabelle1!$C$22,Tabelle1!$C$27,Tabelle1!$C$32,Tabelle1!$C$37,Tabelle1!$C$42,Tabelle1!$C$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7142857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5789473684210527E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4634146341463415E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.276595744680851E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1320754716981131E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0714285714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0169491525423728E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6774193548387101E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$B$2,Tabelle1!$B$7,Tabelle1!$B$12,Tabelle1!$B$17,Tabelle1!$B$22,Tabelle1!$B$27,Tabelle1!$B$32,Tabelle1!$B$37,Tabelle1!$B$42,Tabelle1!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$D$2:$D$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$D$2,Tabelle1!$D$7,Tabelle1!$D$12,Tabelle1!$D$17,Tabelle1!$D$22,Tabelle1!$D$27,Tabelle1!$D$32,Tabelle1!$D$37,Tabelle1!$D$42,Tabelle1!$D$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2514285714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1777359505243345E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1122397155916709E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0536444551359153E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0009140767824496E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5321001088139283E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0984628167843796E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7025630836479236E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3396801218583397E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0058490221166147E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$B$2,Tabelle1!$B$7,Tabelle1!$B$12,Tabelle1!$B$17,Tabelle1!$B$22,Tabelle1!$B$27,Tabelle1!$B$32,Tabelle1!$B$37,Tabelle1!$B$42,Tabelle1!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$E$2:$E$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$E$2,Tabelle1!$E$7,Tabelle1!$E$12,Tabelle1!$E$17,Tabelle1!$E$22,Tabelle1!$E$27,Tabelle1!$E$32,Tabelle1!$E$37,Tabelle1!$E$42,Tabelle1!$E$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3714285714285713E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.230940456316082E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0976138828633406E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9709148598625066E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8503611971104227E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7355163727959698E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6259842519685039E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5214045214045217E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4214487300094077E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3258168430740911E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="621653104"/>
+        <c:axId val="621653888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="621653104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621653888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="621653888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621653104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73474684379536348"/>
+          <c:y val="0.48024205307669882"/>
+          <c:w val="0.25055159783944975"/>
+          <c:h val="0.3547470107903179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -7290,6 +8450,41 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207264</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7560,8 +8755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B28" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8407,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="B31" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9254,8 +10449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="B34" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10101,4 +11296,712 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1.2514285714285714E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5.3714285714285713E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.6853932584269662E-2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.2359613973700547E-2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5.3427304762987378E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B20" si="0">B3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.2208718920726948E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5.3143374038896428E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1.6304347826086956E-2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1.2061463898221072E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.28624451692723E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.6042780748663103E-2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.1917718763604701E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.2584470798836425E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.5789473684210527E-2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1.1777359505243345E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5.230940456316082E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.5544041450777202E-2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1.1640267885617093E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5.2037201062887515E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1.1506331109126255E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5.1767815838748765E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.507537688442211E-2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1.1375441512570122E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5.150120534735919E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.4851485148514851E-2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1.124749627651379E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5.1237326937752098E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.4634146341463415E-2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1.1122397155916709E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5.0976138828633406E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1.4423076923076924E-2</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1.1000050228539856E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5.0717600086327827E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.4218009478672985E-2</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1.0880365659777425E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5.0461670603392742E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.4018691588785047E-2</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1.0763257482675578E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5.0208311077876294E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.3824884792626729E-2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1.0648643392006224E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.9957482993197282E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1.0536444551359153E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.9709148598625066E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.3452914798206279E-2</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1.0426585412302418E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.9463270890338874E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.3274336283185841E-2</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.0318993544739198E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4.9219813593046396E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1.3100436681222707E-2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1.0213599477660667E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.8978741142142561E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f>B20+1</f>
+        <v>2034</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1.2931034482758621E-2</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1.0110336549559116E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4.8740018666390125E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <f>B21+1</f>
+        <v>2035</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1.276595744680851E-2</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1.0009140767824496E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.8503611971104227E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <f t="shared" ref="B23:B27" si="1">B22+1</f>
+        <v>2036</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.2605042016806723E-2</v>
+      </c>
+      <c r="D23" s="21">
+        <v>9.9099506765011995E-3</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4.8269487521823973E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1.2448132780082987E-2</v>
+      </c>
+      <c r="D24" s="21">
+        <v>9.8127072318308084E-3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4.8037612428454618E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1.2295081967213115E-2</v>
+      </c>
+      <c r="D25" s="21">
+        <v>9.7173536850512499E-3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4.7807954429864713E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1.2145748987854251E-2</v>
+      </c>
+      <c r="D26" s="21">
+        <v>9.6238354719634378E-3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4.7580481878922859E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D27" s="21">
+        <v>9.5321001088139283E-3</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.7355163727959698E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <f>B27+1</f>
+        <v>2041</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1.1857707509881422E-2</v>
+      </c>
+      <c r="D28" s="21">
+        <v>9.4420970940760542E-3</v>
+      </c>
+      <c r="E28" s="12">
+        <v>4.7131969514640996E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:B32" si="2">B28+1</f>
+        <v>2042</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>9.3537778157433901E-3</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4.6910869348238344E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>2043</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1.1583011583011582E-2</v>
+      </c>
+      <c r="D30" s="21">
+        <v>9.2670954637779288E-3</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4.6691833896284523E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>2044</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1.1450381679389313E-2</v>
+      </c>
+      <c r="D31" s="21">
+        <v>9.1820049473816615E-3</v>
+      </c>
+      <c r="E31" s="12">
+        <v>4.6474834371600911E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>2045</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1.1320754716981131E-2</v>
+      </c>
+      <c r="D32" s="21">
+        <v>9.0984628167843796E-3</v>
+      </c>
+      <c r="E32" s="12">
+        <v>4.6259842519685039E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <f>B32+1</f>
+        <v>2046</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1.1194029850746268E-2</v>
+      </c>
+      <c r="D33" s="21">
+        <v>9.0164271892626286E-3</v>
+      </c>
+      <c r="E33" s="12">
+        <v>4.604683060644656E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B38" si="3">B33+1</f>
+        <v>2047</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1.107011070110701E-2</v>
+      </c>
+      <c r="D34" s="21">
+        <v>8.9358576791251833E-3</v>
+      </c>
+      <c r="E34" s="12">
+        <v>4.5835771406280475E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1.0948905109489052E-2</v>
+      </c>
+      <c r="D35" s="21">
+        <v>8.8567153314190964E-3</v>
+      </c>
+      <c r="E35" s="12">
+        <v>4.5626638190466948E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <f t="shared" si="3"/>
+        <v>2049</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1.0830324909747292E-2</v>
+      </c>
+      <c r="D36" s="21">
+        <v>8.7789625591277159E-3</v>
+      </c>
+      <c r="E36" s="12">
+        <v>4.5419404715887129E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1.0714285714285714E-2</v>
+      </c>
+      <c r="D37" s="21">
+        <v>8.7025630836479236E-3</v>
+      </c>
+      <c r="E37" s="12">
+        <v>4.5214045214045217E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>2051</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1.0600706713780919E-2</v>
+      </c>
+      <c r="D38" s="21">
+        <v>8.6274818783485668E-3</v>
+      </c>
+      <c r="E38" s="12">
+        <v>4.50105343803869E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <f>B38+1</f>
+        <v>2052</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1.048951048951049E-2</v>
+      </c>
+      <c r="D39" s="21">
+        <v>8.5536851150255829E-3</v>
+      </c>
+      <c r="E39" s="12">
+        <v>4.4808847363905042E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <f t="shared" ref="B40:B43" si="4">B39+1</f>
+        <v>2053</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1.0380622837370242E-2</v>
+      </c>
+      <c r="D40" s="21">
+        <v>8.4811401130818684E-3</v>
+      </c>
+      <c r="E40" s="12">
+        <v>4.4608959757023534E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <f t="shared" si="4"/>
+        <v>2054</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1.0273972602739725E-2</v>
+      </c>
+      <c r="D41" s="21">
+        <v>8.4098152912714559E-3</v>
+      </c>
+      <c r="E41" s="12">
+        <v>4.4410847585750731E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <f t="shared" si="4"/>
+        <v>2055</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1.0169491525423728E-2</v>
+      </c>
+      <c r="D42" s="21">
+        <v>8.3396801218583397E-3</v>
+      </c>
+      <c r="E42" s="12">
+        <v>4.4214487300094077E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <f t="shared" si="4"/>
+        <v>2056</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1.0067114093959731E-2</v>
+      </c>
+      <c r="D43" s="21">
+        <v>8.2707050870501151E-3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>4.401985576472792E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <f>B43+1</f>
+        <v>2057</v>
+      </c>
+      <c r="C44" s="12">
+        <v>9.9667774086378731E-3</v>
+      </c>
+      <c r="D44" s="21">
+        <v>8.2028616375758485E-3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>4.3826930249906753E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <f>B44+1</f>
+        <v>2058</v>
+      </c>
+      <c r="C45" s="12">
+        <v>9.8684210526315784E-3</v>
+      </c>
+      <c r="D45" s="21">
+        <v>8.1361221532860271E-3</v>
+      </c>
+      <c r="E45" s="12">
+        <v>4.3635688422616285E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <f>B45+1</f>
+        <v>2059</v>
+      </c>
+      <c r="C46" s="12">
+        <v>9.7719869706840382E-3</v>
+      </c>
+      <c r="D46" s="21">
+        <v>8.0704599056603769E-3</v>
+      </c>
+      <c r="E46" s="12">
+        <v>4.3446108337955262E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <f>B46+1</f>
+        <v>2060</v>
+      </c>
+      <c r="C47" s="12">
+        <v>9.6774193548387101E-3</v>
+      </c>
+      <c r="D47" s="21">
+        <v>8.0058490221166147E-3</v>
+      </c>
+      <c r="E47" s="12">
+        <v>4.3258168430740911E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
+++ b/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario 1" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Szenario 3" sheetId="9" r:id="rId3"/>
     <sheet name="Tabelle1" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +382,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,13 +477,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0060210791792749E-2"/>
+          <c:y val="0.13467592592592595"/>
+          <c:w val="0.62273486028889136"/>
+          <c:h val="0.75792468649752109"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Umsetzung maximal</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -590,6 +606,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Umsetzung minimal</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -699,6 +718,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Stagnation</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -814,11 +836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="621653104"/>
-        <c:axId val="621653888"/>
+        <c:axId val="144018920"/>
+        <c:axId val="144020488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="621653104"/>
+        <c:axId val="144018920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +883,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621653888"/>
+        <c:crossAx val="144020488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,9 +891,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621653888"/>
+        <c:axId val="144020488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.9000000000000003E-2"/>
           <c:min val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -921,7 +944,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621653104"/>
+        <c:crossAx val="144018920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -939,10 +962,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73474684379536348"/>
-          <c:y val="0.48024205307669882"/>
-          <c:w val="0.25055159783944975"/>
-          <c:h val="0.3547470107903179"/>
+          <c:x val="0.69309242842733454"/>
+          <c:y val="0.48950131233595801"/>
+          <c:w val="0.2922060132074788"/>
+          <c:h val="0.35937664041994749"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1003,7 +1026,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2435,7 +2458,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>93286</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1407885" cy="359522"/>
+    <xdr:ext cx="1476494" cy="318036"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2445,8 +2468,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
+              <a:off x="1078536" y="174350"/>
+              <a:ext cx="1476494" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2527,6 +2550,14 @@
                       </m:fPr>
                       <m:num>
                         <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>188</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
                           <a:rPr lang="de-CH" sz="1100" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
@@ -2536,7 +2567,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>∆</m:t>
+                          <m:t>3</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="de-CH" sz="1100" b="0" i="1">
@@ -2548,88 +2579,46 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝐸𝑊</m:t>
+                          <m:t>5000</m:t>
                         </m:r>
-                        <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="de-CH">
-                            <a:effectLst/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐸𝑖𝑛𝑤𝑜h𝑛𝑒𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑡𝑜𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
                       </m:den>
                     </m:f>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>0.54</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>%</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -2646,8 +2635,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
+              <a:off x="1078536" y="174350"/>
+              <a:ext cx="1476494" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2697,7 +2686,7 @@
                 <a:rPr lang="de-CH" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t>  188/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100" i="0">
@@ -2705,55 +2694,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ∆</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐸𝑊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
+                <a:t>3</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100" b="0" i="0">
@@ -2765,257 +2710,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝐸𝑖𝑛𝑤𝑜ℎ𝑛𝑒𝑟〗_(𝑡𝑜𝑡,𝑖) </a:t>
+                <a:t>5000=</a:t>
               </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>389917</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63230</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1087670" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3105555" y="809017"/>
-              <a:ext cx="1087670" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="de-CH" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>∆</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑇𝑉</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑉𝑒𝑙𝑜</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
               <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑊𝑅</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3105555" y="809017"/>
-              <a:ext cx="1087670" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∆</a:t>
+                <a:t>0.54</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100" b="0" i="0">
@@ -3027,47 +2734,9 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝐷𝑇𝑉〗_(𝑉𝑒𝑙𝑜,𝑖)</a:t>
+                <a:t>%</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑊𝑅〗_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3869,6 +3538,260 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121595</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467581" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2837233" y="826851"/>
+              <a:ext cx="1467581" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∆</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑇𝑉</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉𝑒𝑙𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>+ 7 </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉𝑒𝑙𝑜</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>/</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2837233" y="826851"/>
+              <a:ext cx="1467581" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑇𝑉〗_(𝑉𝑒𝑙𝑜,𝑖)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+ 7 𝑉𝑒𝑙𝑜/𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4746,361 +4669,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>973153</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93286</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1407885" cy="359522"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑊𝑅</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∆</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐸𝑊</m:t>
-                        </m:r>
-                        <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="de-CH">
-                            <a:effectLst/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐸𝑖𝑛𝑤𝑜h𝑛𝑒𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑡𝑜𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑊𝑅〗_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ∆</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐸𝑊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝐸𝑖𝑛𝑤𝑜ℎ𝑛𝑒𝑟〗_(𝑡𝑜𝑡,𝑖) </a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>389917</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>63230</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1087670" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="1545680" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -5108,8 +4684,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3102637" y="809990"/>
-              <a:ext cx="1087670" cy="176972"/>
+              <a:off x="2829938" y="817124"/>
+              <a:ext cx="1545680" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5230,51 +4806,29 @@
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t> </m:t>
+                    <m:t>+ 16 </m:t>
                   </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑊𝑅</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉𝑒𝑙𝑜</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>/</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑎</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
@@ -5285,7 +4839,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -5293,8 +4847,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3102637" y="809990"/>
-              <a:ext cx="1087670" cy="176972"/>
+              <a:off x="2829938" y="817124"/>
+              <a:ext cx="1545680" cy="176972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5354,31 +4908,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑊𝑅〗_𝑖</a:t>
+                <a:t>+ 16 𝑉𝑒𝑙𝑜/𝑎</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100"/>
@@ -6185,6 +5715,299 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1078149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476494" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1183532" y="129702"/>
+              <a:ext cx="1476494" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>438</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5000</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>1.25</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1183532" y="129702"/>
+              <a:ext cx="1476494" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊𝑅〗_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  438/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5000=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6515,8 +6338,8 @@
       <xdr:rowOff>52853</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1903791" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5"/>
@@ -6582,7 +6405,7 @@
               </a14:m>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = + 600</a:t>
+                <a:t> = + 700</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100" baseline="0"/>
@@ -6656,7 +6479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5"/>
@@ -6718,7 +6541,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = + 600</a:t>
+                <a:t> = + 700</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-CH" sz="1100" baseline="0"/>
@@ -7053,653 +6876,6 @@
                 <a:t>𝐷𝑇𝑉〗_(𝑉𝑒𝑙𝑜,𝑖)</a:t>
               </a:r>
               <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>973153</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93286</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1407885" cy="359522"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑊𝑅</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="de-CH" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∆</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐸𝑊</m:t>
-                        </m:r>
-                        <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="de-CH">
-                            <a:effectLst/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-CH" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝐸𝑖𝑛𝑤𝑜h𝑛𝑒𝑟</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑡𝑜𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Textfeld 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1079833" y="177106"/>
-              <a:ext cx="1407885" cy="359522"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑊𝑅〗_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ∆</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐸𝑊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝐸𝑖𝑛𝑤𝑜ℎ𝑛𝑒𝑟〗_(𝑡𝑜𝑡,𝑖) </a:t>
-              </a:r>
-              <a:endParaRPr lang="de-CH" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>389917</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63230</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1087670" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3102637" y="809990"/>
-              <a:ext cx="1087670" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="de-CH" sz="1100" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>∆</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑇𝑉</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑉𝑒𝑙𝑜</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-CH" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑊𝑅</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Textfeld 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3102637" y="809990"/>
-              <a:ext cx="1087670" cy="176972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∆</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝐷𝑇𝑉〗_(𝑉𝑒𝑙𝑜,𝑖)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑊𝑅〗_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-CH" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8452,6 +7628,553 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1545680" cy="176972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Textfeld 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2829128" y="834958"/>
+              <a:ext cx="1545680" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∆</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑇𝑉</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉𝑒𝑙𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>+ 25 </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉𝑒𝑙𝑜</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>/</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Textfeld 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2829128" y="834958"/>
+              <a:ext cx="1545680" cy="176972"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑇𝑉〗_(𝑉𝑒𝑙𝑜,𝑖)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+ 25 𝑉𝑒𝑙𝑜/𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>956552</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1322413" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1061935" y="162128"/>
+              <a:ext cx="1322413" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>700</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5000</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>2 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>%</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1061935" y="162128"/>
+              <a:ext cx="1322413" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊𝑅〗_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  700/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5000=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8755,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F54"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8847,9 +8570,9 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="12">
-        <f>188/D9</f>
-        <v>5.3714285714285713E-3</v>
+      <c r="F9" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -8863,26 +8586,27 @@
         <v>35188</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:F54" si="0">188/D10</f>
-        <v>5.3427304762987378E-3</v>
+      <c r="F10" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C27" si="1">C10+1</f>
+        <f t="shared" ref="C11:C27" si="0">C10+1</f>
         <v>2017</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D54" si="2">D10+188</f>
+        <f t="shared" ref="D11:D54" si="1">D10+188</f>
         <v>35376</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>5.3143374038896428E-3</v>
+      <c r="F11" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -8890,258 +8614,258 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35564</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>5.28624451692723E-3</v>
+      <c r="F12" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35752</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>5.2584470798836425E-3</v>
+      <c r="F13" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35940</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>5.230940456316082E-3</v>
+      <c r="F14" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36128</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>5.2037201062887515E-3</v>
+      <c r="F15" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36316</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>5.1767815838748765E-3</v>
+      <c r="F16" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36504</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>5.150120534735919E-3</v>
+      <c r="F17" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36692</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>5.1237326937752098E-3</v>
+      <c r="F18" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36880</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0976138828633406E-3</v>
+      <c r="F19" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37068</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0717600086327827E-3</v>
+      <c r="F20" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37256</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0461670603392742E-3</v>
+      <c r="F21" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37444</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0208311077876294E-3</v>
+      <c r="F22" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37632</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>4.9957482993197282E-3</v>
+      <c r="F23" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37820</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="12">
-        <f t="shared" si="0"/>
-        <v>4.9709148598625066E-3</v>
+      <c r="F24" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38008</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="12">
-        <f t="shared" si="0"/>
-        <v>4.9463270890338874E-3</v>
+      <c r="F25" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38196</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="12">
-        <f t="shared" si="0"/>
-        <v>4.9219813593046396E-3</v>
+      <c r="F26" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38384</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8978741142142561E-3</v>
+      <c r="F27" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -9151,13 +8875,13 @@
         <v>2034</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38572</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8740018666390125E-3</v>
+      <c r="F28" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -9167,93 +8891,93 @@
         <v>2035</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38760</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8503611971104227E-3</v>
+      <c r="F29" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C34" si="3">C29+1</f>
+        <f t="shared" ref="C30:C34" si="2">C29+1</f>
         <v>2036</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38948</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8269487521823973E-3</v>
+      <c r="F30" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39136</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8037612428454618E-3</v>
+      <c r="F31" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39324</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7807954429864713E-3</v>
+      <c r="F32" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39512</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7580481878922859E-3</v>
+      <c r="F33" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39700</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7355163727959698E-3</v>
+      <c r="F34" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="33" t="s">
@@ -9267,13 +8991,13 @@
         <v>2041</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39888</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7131969514640996E-3</v>
+      <c r="F35" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="33"/>
@@ -9281,65 +9005,65 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <f t="shared" ref="C36:C39" si="4">C35+1</f>
+        <f t="shared" ref="C36:C39" si="3">C35+1</f>
         <v>2042</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40076</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="12">
-        <f t="shared" si="0"/>
-        <v>4.6910869348238344E-3</v>
+      <c r="F36" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40264</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="12">
-        <f t="shared" si="0"/>
-        <v>4.6691833896284523E-3</v>
+      <c r="F37" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40452</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="12">
-        <f t="shared" si="0"/>
-        <v>4.6474834371600911E-3</v>
+      <c r="F38" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40640</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="12">
-        <f t="shared" si="0"/>
-        <v>4.6259842519685039E-3</v>
+      <c r="F39" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G39" s="10"/>
     </row>
@@ -9349,93 +9073,93 @@
         <v>2046</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40828</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="12">
-        <f t="shared" si="0"/>
-        <v>4.604683060644656E-3</v>
+      <c r="F40" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C45" si="5">C40+1</f>
+        <f t="shared" ref="C41:C45" si="4">C40+1</f>
         <v>2047</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41016</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5835771406280475E-3</v>
+      <c r="F41" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41204</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5626638190466948E-3</v>
+      <c r="F42" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41392</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5419404715887129E-3</v>
+      <c r="F43" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41580</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5214045214045217E-3</v>
+      <c r="F44" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2051</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41768</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="12">
-        <f t="shared" si="0"/>
-        <v>4.50105343803869E-3</v>
+      <c r="F45" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -9445,77 +9169,77 @@
         <v>2052</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41956</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4808847363905042E-3</v>
+      <c r="F46" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
-        <f t="shared" ref="C47:C50" si="6">C46+1</f>
+        <f t="shared" ref="C47:C50" si="5">C46+1</f>
         <v>2053</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42144</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4608959757023534E-3</v>
+      <c r="F47" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2054</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42332</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4410847585750731E-3</v>
+      <c r="F48" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2055</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42520</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4214487300094077E-3</v>
+      <c r="F49" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2056</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42708</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="12">
-        <f t="shared" si="0"/>
-        <v>4.401985576472792E-3</v>
+      <c r="F50" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -9525,13 +9249,13 @@
         <v>2057</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42896</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3826930249906753E-3</v>
+      <c r="F51" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -9541,13 +9265,13 @@
         <v>2058</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43084</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3635688422616285E-3</v>
+      <c r="F52" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G52" s="10"/>
     </row>
@@ -9557,13 +9281,13 @@
         <v>2059</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43272</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3446108337955262E-3</v>
+      <c r="F53" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -9573,13 +9297,13 @@
         <v>2060</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43460</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3258168430740911E-3</v>
+      <c r="F54" s="36">
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -9602,8 +9326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F54"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9694,9 +9418,9 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="21">
-        <f>438/D9</f>
-        <v>1.2514285714285714E-2</v>
+      <c r="F9" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -9710,26 +9434,27 @@
         <v>35438</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="21">
-        <f t="shared" ref="F10:F54" si="0">438/D10</f>
-        <v>1.2359613973700547E-2</v>
+      <c r="F10" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C27" si="1">C10+1</f>
+        <f t="shared" ref="C11:C27" si="0">C10+1</f>
         <v>2017</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D54" si="2">D10+438</f>
+        <f t="shared" ref="D11:D54" si="1">D10+438</f>
         <v>35876</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>1.2208718920726948E-2</v>
+      <c r="F11" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -9737,258 +9462,258 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36314</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="21">
-        <f t="shared" si="0"/>
-        <v>1.2061463898221072E-2</v>
+      <c r="F12" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36752</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1917718763604701E-2</v>
+      <c r="F13" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37190</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1777359505243345E-2</v>
+      <c r="F14" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37628</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1640267885617093E-2</v>
+      <c r="F15" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38066</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1506331109126255E-2</v>
+      <c r="F16" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38504</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1375441512570122E-2</v>
+      <c r="F17" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38942</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="21">
-        <f t="shared" si="0"/>
-        <v>1.124749627651379E-2</v>
+      <c r="F18" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39380</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1122397155916709E-2</v>
+      <c r="F19" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39818</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1000050228539856E-2</v>
+      <c r="F20" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40256</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0880365659777425E-2</v>
+      <c r="F21" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40694</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0763257482675578E-2</v>
+      <c r="F22" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41132</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0648643392006224E-2</v>
+      <c r="F23" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41570</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0536444551359153E-2</v>
+      <c r="F24" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42008</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0426585412302418E-2</v>
+      <c r="F25" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42446</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0318993544739198E-2</v>
+      <c r="F26" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42884</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0213599477660667E-2</v>
+      <c r="F27" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -9998,13 +9723,13 @@
         <v>2034</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43322</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0110336549559116E-2</v>
+      <c r="F28" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -10014,93 +9739,93 @@
         <v>2035</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="2"/>
+        <f>D28+438</f>
         <v>43760</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0009140767824496E-2</v>
+      <c r="F29" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C34" si="3">C29+1</f>
+        <f t="shared" ref="C30:C34" si="2">C29+1</f>
         <v>2036</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44198</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="21">
-        <f t="shared" si="0"/>
-        <v>9.9099506765011995E-3</v>
+      <c r="F30" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44636</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="21">
-        <f t="shared" si="0"/>
-        <v>9.8127072318308084E-3</v>
+      <c r="F31" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45074</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="21">
-        <f t="shared" si="0"/>
-        <v>9.7173536850512499E-3</v>
+      <c r="F32" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45512</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="21">
-        <f t="shared" si="0"/>
-        <v>9.6238354719634378E-3</v>
+      <c r="F33" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45950</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="21">
-        <f t="shared" si="0"/>
-        <v>9.5321001088139283E-3</v>
+      <c r="F34" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="33" t="s">
@@ -10114,13 +9839,13 @@
         <v>2041</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46388</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="21">
-        <f t="shared" si="0"/>
-        <v>9.4420970940760542E-3</v>
+      <c r="F35" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="33"/>
@@ -10128,65 +9853,65 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <f t="shared" ref="C36:C39" si="4">C35+1</f>
+        <f t="shared" ref="C36:C39" si="3">C35+1</f>
         <v>2042</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46826</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="21">
-        <f t="shared" si="0"/>
-        <v>9.3537778157433901E-3</v>
+      <c r="F36" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47264</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="21">
-        <f t="shared" si="0"/>
-        <v>9.2670954637779288E-3</v>
+      <c r="F37" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47702</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="21">
-        <f t="shared" si="0"/>
-        <v>9.1820049473816615E-3</v>
+      <c r="F38" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48140</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="21">
-        <f t="shared" si="0"/>
-        <v>9.0984628167843796E-3</v>
+      <c r="F39" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G39" s="10"/>
     </row>
@@ -10196,93 +9921,93 @@
         <v>2046</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48578</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="21">
-        <f t="shared" si="0"/>
-        <v>9.0164271892626286E-3</v>
+      <c r="F40" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C45" si="5">C40+1</f>
+        <f t="shared" ref="C41:C45" si="4">C40+1</f>
         <v>2047</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49016</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="21">
-        <f t="shared" si="0"/>
-        <v>8.9358576791251833E-3</v>
+      <c r="F41" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49454</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="21">
-        <f t="shared" si="0"/>
-        <v>8.8567153314190964E-3</v>
+      <c r="F42" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49892</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="21">
-        <f t="shared" si="0"/>
-        <v>8.7789625591277159E-3</v>
+      <c r="F43" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50330</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="21">
-        <f t="shared" si="0"/>
-        <v>8.7025630836479236E-3</v>
+      <c r="F44" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2051</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50768</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="21">
-        <f t="shared" si="0"/>
-        <v>8.6274818783485668E-3</v>
+      <c r="F45" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -10292,77 +10017,77 @@
         <v>2052</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51206</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="21">
-        <f t="shared" si="0"/>
-        <v>8.5536851150255829E-3</v>
+      <c r="F46" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
-        <f t="shared" ref="C47:C50" si="6">C46+1</f>
+        <f t="shared" ref="C47:C50" si="5">C46+1</f>
         <v>2053</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51644</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="21">
-        <f t="shared" si="0"/>
-        <v>8.4811401130818684E-3</v>
+      <c r="F47" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2054</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52082</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="21">
-        <f t="shared" si="0"/>
-        <v>8.4098152912714559E-3</v>
+      <c r="F48" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2055</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52520</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="21">
-        <f t="shared" si="0"/>
-        <v>8.3396801218583397E-3</v>
+      <c r="F49" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2056</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52958</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="21">
-        <f t="shared" si="0"/>
-        <v>8.2707050870501151E-3</v>
+      <c r="F50" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -10372,13 +10097,13 @@
         <v>2057</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53396</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="21">
-        <f t="shared" si="0"/>
-        <v>8.2028616375758485E-3</v>
+      <c r="F51" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -10388,13 +10113,13 @@
         <v>2058</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53834</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="21">
-        <f t="shared" si="0"/>
-        <v>8.1361221532860271E-3</v>
+      <c r="F52" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G52" s="10"/>
     </row>
@@ -10404,13 +10129,13 @@
         <v>2059</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54272</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="21">
-        <f t="shared" si="0"/>
-        <v>8.0704599056603769E-3</v>
+      <c r="F53" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -10420,13 +10145,13 @@
         <v>2060</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54710</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="21">
-        <f t="shared" si="0"/>
-        <v>8.0058490221166147E-3</v>
+      <c r="F54" s="36">
+        <f>16</f>
+        <v>16</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -10449,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10547,9 +10272,9 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="12">
-        <f>600/D9</f>
-        <v>1.7142857142857144E-2</v>
+      <c r="F9" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -10563,26 +10288,26 @@
         <v>35600</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:F54" si="0">600/D10</f>
-        <v>1.6853932584269662E-2</v>
+      <c r="F10" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C27" si="1">C10+1</f>
+        <f t="shared" ref="C11:C27" si="0">C10+1</f>
         <v>2017</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D54" si="2">D10+600</f>
+        <f t="shared" ref="D11:D54" si="1">D10+600</f>
         <v>36200</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6574585635359115E-2</v>
+      <c r="F11" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -10590,258 +10315,259 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36800</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6304347826086956E-2</v>
+      <c r="F12" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37400</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6042780748663103E-2</v>
+      <c r="F13" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5789473684210527E-2</v>
+      <c r="F14" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38600</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5544041450777202E-2</v>
+      <c r="F15" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39200</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5306122448979591E-2</v>
+      <c r="F16" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39800</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>1.507537688442211E-2</v>
+      <c r="F17" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40400</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4851485148514851E-2</v>
+      <c r="F18" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41000</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4634146341463415E-2</v>
+      <c r="F19" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41600</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4423076923076924E-2</v>
+      <c r="F20" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42200</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4218009478672985E-2</v>
+      <c r="F21" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42800</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4018691588785047E-2</v>
+      <c r="F22" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43400</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3824884792626729E-2</v>
+      <c r="F23" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3636363636363636E-2</v>
+      <c r="F24" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44600</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3452914798206279E-2</v>
+      <c r="F25" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45200</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3274336283185841E-2</v>
+      <c r="F26" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45800</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3100436681222707E-2</v>
+      <c r="F27" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -10851,13 +10577,13 @@
         <v>2034</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46400</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2931034482758621E-2</v>
+      <c r="F28" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -10867,93 +10593,93 @@
         <v>2035</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="12">
-        <f t="shared" si="0"/>
-        <v>1.276595744680851E-2</v>
+      <c r="F29" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C34" si="3">C29+1</f>
+        <f t="shared" ref="C30:C34" si="2">C29+1</f>
         <v>2036</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47600</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2605042016806723E-2</v>
+      <c r="F30" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48200</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2448132780082987E-2</v>
+      <c r="F31" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48800</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2295081967213115E-2</v>
+      <c r="F32" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49400</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2145748987854251E-2</v>
+      <c r="F33" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+      <c r="F34" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="33" t="s">
@@ -10967,13 +10693,13 @@
         <v>2041</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50600</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1857707509881422E-2</v>
+      <c r="F35" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="33"/>
@@ -10981,65 +10707,65 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <f t="shared" ref="C36:C39" si="4">C35+1</f>
+        <f t="shared" ref="C36:C39" si="3">C35+1</f>
         <v>2042</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51200</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="12">
-        <f t="shared" si="0"/>
-        <v>1.171875E-2</v>
+      <c r="F36" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51800</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1583011583011582E-2</v>
+      <c r="F37" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1450381679389313E-2</v>
+      <c r="F38" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53000</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1320754716981131E-2</v>
+      <c r="F39" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G39" s="10"/>
     </row>
@@ -11049,93 +10775,93 @@
         <v>2046</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53600</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1194029850746268E-2</v>
+      <c r="F40" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C45" si="5">C40+1</f>
+        <f t="shared" ref="C41:C45" si="4">C40+1</f>
         <v>2047</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54200</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="12">
-        <f t="shared" si="0"/>
-        <v>1.107011070110701E-2</v>
+      <c r="F41" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54800</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0948905109489052E-2</v>
+      <c r="F42" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55400</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0830324909747292E-2</v>
+      <c r="F43" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0714285714285714E-2</v>
+      <c r="F44" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2051</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56600</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0600706713780919E-2</v>
+      <c r="F45" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -11145,77 +10871,77 @@
         <v>2052</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57200</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="12">
-        <f t="shared" si="0"/>
-        <v>1.048951048951049E-2</v>
+      <c r="F46" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
-        <f t="shared" ref="C47:C50" si="6">C46+1</f>
+        <f t="shared" ref="C47:C50" si="5">C46+1</f>
         <v>2053</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57800</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0380622837370242E-2</v>
+      <c r="F47" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2054</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0273972602739725E-2</v>
+      <c r="F48" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2055</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59000</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0169491525423728E-2</v>
+      <c r="F49" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2056</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59600</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0067114093959731E-2</v>
+      <c r="F50" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -11225,13 +10951,13 @@
         <v>2057</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60200</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="12">
-        <f t="shared" si="0"/>
-        <v>9.9667774086378731E-3</v>
+      <c r="F51" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -11241,13 +10967,13 @@
         <v>2058</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60800</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="12">
-        <f t="shared" si="0"/>
-        <v>9.8684210526315784E-3</v>
+      <c r="F52" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G52" s="10"/>
     </row>
@@ -11257,13 +10983,13 @@
         <v>2059</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61400</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="12">
-        <f t="shared" si="0"/>
-        <v>9.7719869706840382E-3</v>
+      <c r="F53" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -11273,13 +10999,13 @@
         <v>2060</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62000</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6774193548387101E-3</v>
+      <c r="F54" s="36">
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -11302,8 +11028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
+++ b/09-Excell/Szenarien Umsetzung STEK- j. Zuwachs konstant.xlsx
@@ -342,6 +342,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,9 +385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -836,11 +835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="144018920"/>
-        <c:axId val="144020488"/>
+        <c:axId val="545375736"/>
+        <c:axId val="545376128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144018920"/>
+        <c:axId val="545375736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +882,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144020488"/>
+        <c:crossAx val="545376128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144020488"/>
+        <c:axId val="545376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.9000000000000003E-2"/>
@@ -944,7 +943,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144018920"/>
+        <c:crossAx val="545375736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3546,8 +3545,8 @@
       <xdr:rowOff>72957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1467581" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -3710,7 +3709,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -4675,8 +4674,8 @@
       <xdr:rowOff>63230</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1545680" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -4839,7 +4838,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -6338,8 +6337,8 @@
       <xdr:rowOff>52853</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1903791" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5"/>
@@ -6479,7 +6478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Textfeld 5"/>
@@ -7636,8 +7635,8 @@
       <xdr:rowOff>81064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1545680" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Textfeld 15"/>
@@ -7800,7 +7799,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Textfeld 15"/>
@@ -7890,8 +7889,8 @@
       <xdr:rowOff>81064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1322413" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -8058,7 +8057,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -8503,54 +8502,54 @@
     <row r="3" spans="2:17" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="10"/>
       <c r="H7" s="14"/>
     </row>
@@ -8570,7 +8569,7 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="36">
+      <c r="F9" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>35188</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="36">
+      <c r="F10" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>35376</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="36">
+      <c r="F11" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>35564</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="36">
+      <c r="F12" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>35752</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="36">
+      <c r="F13" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>35940</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="36">
+      <c r="F14" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>36128</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="36">
+      <c r="F15" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>36316</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="36">
+      <c r="F16" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>36504</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="36">
+      <c r="F17" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>36692</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="36">
+      <c r="F18" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>36880</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="36">
+      <c r="F19" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>37068</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="36">
+      <c r="F20" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>37256</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="36">
+      <c r="F21" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>37444</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="36">
+      <c r="F22" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>37632</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="36">
+      <c r="F23" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>37820</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="36">
+      <c r="F24" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>38008</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="36">
+      <c r="F25" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>38196</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="36">
+      <c r="F26" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>38384</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="36">
+      <c r="F27" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>38572</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="36">
+      <c r="F28" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>38760</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="36">
+      <c r="F29" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>38948</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="36">
+      <c r="F30" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>39136</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="36">
+      <c r="F31" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>39324</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="36">
+      <c r="F32" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>39512</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="36">
+      <c r="F33" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -8975,15 +8974,15 @@
         <v>39700</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="36">
+      <c r="F34" s="22">
         <f>7</f>
         <v>7</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
@@ -8995,13 +8994,13 @@
         <v>39888</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="36">
+      <c r="F35" s="22">
         <f>7</f>
         <v>7</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
@@ -9013,7 +9012,7 @@
         <v>40076</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="36">
+      <c r="F36" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>40264</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="36">
+      <c r="F37" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>40452</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="36">
+      <c r="F38" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>40640</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="36">
+      <c r="F39" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>40828</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="36">
+      <c r="F40" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>41016</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="36">
+      <c r="F41" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>41204</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="36">
+      <c r="F42" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>41392</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="36">
+      <c r="F43" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>41580</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="36">
+      <c r="F44" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>41768</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="36">
+      <c r="F45" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>41956</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="36">
+      <c r="F46" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>42144</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="36">
+      <c r="F47" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>42332</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="36">
+      <c r="F48" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9221,7 +9220,7 @@
         <v>42520</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="36">
+      <c r="F49" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>42708</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="36">
+      <c r="F50" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>42896</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="36">
+      <c r="F51" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>43084</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="36">
+      <c r="F52" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>43272</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="36">
+      <c r="F53" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>43460</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="36">
+      <c r="F54" s="22">
         <f>7</f>
         <v>7</v>
       </c>
@@ -9351,54 +9350,54 @@
     <row r="3" spans="2:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:17" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="10"/>
       <c r="H7" s="14"/>
     </row>
@@ -9418,7 +9417,7 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="36">
+      <c r="F9" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>35438</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="36">
+      <c r="F10" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>35876</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="36">
+      <c r="F11" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>36314</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="36">
+      <c r="F12" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>36752</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="36">
+      <c r="F13" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>37190</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="36">
+      <c r="F14" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>37628</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="36">
+      <c r="F15" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>38066</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="36">
+      <c r="F16" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>38504</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="36">
+      <c r="F17" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>38942</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="36">
+      <c r="F18" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>39380</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="36">
+      <c r="F19" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>39818</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="36">
+      <c r="F20" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>40256</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="36">
+      <c r="F21" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>40694</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="36">
+      <c r="F22" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>41132</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="36">
+      <c r="F23" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>41570</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="36">
+      <c r="F24" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>42008</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="36">
+      <c r="F25" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>42446</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="36">
+      <c r="F26" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>42884</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="36">
+      <c r="F27" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9727,7 +9726,7 @@
         <v>43322</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="36">
+      <c r="F28" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>43760</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="36">
+      <c r="F29" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>44198</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="36">
+      <c r="F30" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>44636</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="36">
+      <c r="F31" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>45074</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="36">
+      <c r="F32" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>45512</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="36">
+      <c r="F33" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9823,15 +9822,15 @@
         <v>45950</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="36">
+      <c r="F34" s="22">
         <f>16</f>
         <v>16</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
@@ -9843,13 +9842,13 @@
         <v>46388</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="36">
+      <c r="F35" s="22">
         <f>16</f>
         <v>16</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
@@ -9861,7 +9860,7 @@
         <v>46826</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="36">
+      <c r="F36" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>47264</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="36">
+      <c r="F37" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>47702</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="36">
+      <c r="F38" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>48140</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="36">
+      <c r="F39" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>48578</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="36">
+      <c r="F40" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>49016</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="36">
+      <c r="F41" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9957,7 +9956,7 @@
         <v>49454</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="36">
+      <c r="F42" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>49892</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="36">
+      <c r="F43" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>50330</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="36">
+      <c r="F44" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>50768</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="36">
+      <c r="F45" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>51206</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="36">
+      <c r="F46" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>51644</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="36">
+      <c r="F47" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>52082</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="36">
+      <c r="F48" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>52520</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="36">
+      <c r="F49" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>52958</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="36">
+      <c r="F50" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>53396</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="36">
+      <c r="F51" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>53834</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="36">
+      <c r="F52" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>54272</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="36">
+      <c r="F53" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>54710</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="36">
+      <c r="F54" s="22">
         <f>16</f>
         <v>16</v>
       </c>
@@ -10174,7 +10173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -10202,57 +10201,57 @@
     <row r="3" spans="2:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:19" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="10"/>
       <c r="H7" s="14"/>
     </row>
@@ -10272,7 +10271,7 @@
         <v>35000</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="36">
+      <c r="F9" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>35600</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="36">
+      <c r="F10" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>36200</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="36">
+      <c r="F11" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>36800</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="36">
+      <c r="F12" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>37400</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="36">
+      <c r="F13" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>38000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="36">
+      <c r="F14" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>38600</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="36">
+      <c r="F15" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>39200</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="36">
+      <c r="F16" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>39800</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="36">
+      <c r="F17" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10421,7 +10420,7 @@
         <v>40400</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="36">
+      <c r="F18" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>41000</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="36">
+      <c r="F19" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>41600</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="36">
+      <c r="F20" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>42200</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="36">
+      <c r="F21" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>42800</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="36">
+      <c r="F22" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>43400</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="36">
+      <c r="F23" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>44000</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="36">
+      <c r="F24" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>44600</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="36">
+      <c r="F25" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>45200</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="36">
+      <c r="F26" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>45800</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="36">
+      <c r="F27" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>46400</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="36">
+      <c r="F28" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>47000</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="36">
+      <c r="F29" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>47600</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="36">
+      <c r="F30" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>48200</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="36">
+      <c r="F31" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>48800</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="36">
+      <c r="F32" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>49400</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="36">
+      <c r="F33" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10677,15 +10676,15 @@
         <v>50000</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="36">
+      <c r="F34" s="22">
         <f>25</f>
         <v>25</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
@@ -10697,13 +10696,13 @@
         <v>50600</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="36">
+      <c r="F35" s="22">
         <f>25</f>
         <v>25</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
@@ -10715,7 +10714,7 @@
         <v>51200</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="36">
+      <c r="F36" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>51800</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="36">
+      <c r="F37" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10747,7 +10746,7 @@
         <v>52400</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="36">
+      <c r="F38" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>53000</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="36">
+      <c r="F39" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>53600</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="36">
+      <c r="F40" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>54200</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="36">
+      <c r="F41" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10811,7 +10810,7 @@
         <v>54800</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="36">
+      <c r="F42" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>55400</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="36">
+      <c r="F43" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>56000</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="36">
+      <c r="F44" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>56600</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="36">
+      <c r="F45" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>57200</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="36">
+      <c r="F46" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>57800</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="36">
+      <c r="F47" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>58400</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="36">
+      <c r="F48" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>59000</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="36">
+      <c r="F49" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>59600</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="36">
+      <c r="F50" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>60200</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="36">
+      <c r="F51" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>60800</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="36">
+      <c r="F52" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>61400</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="36">
+      <c r="F53" s="22">
         <f>25</f>
         <v>25</v>
       </c>
@@ -11003,7 +11002,7 @@
         <v>62000</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="36">
+      <c r="F54" s="22">
         <f>25</f>
         <v>25</v>
       </c>
